--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J55"/>
+  <dimension ref="A1:J57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2794,6 +2794,94 @@
         </is>
       </c>
     </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>5/6/2020</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Mogi Guaçu</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>3530706</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>&gt;40-50%</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>1</v>
+      </c>
+      <c r="G56" t="n">
+        <v>151888</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>45%</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Quarta-feira</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>5/7/2020</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Mogi Guaçu</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>3530706</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>&gt;40-50%</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" t="n">
+        <v>151888</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>45%</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Quinta-Feira</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J57"/>
+  <dimension ref="A1:J58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2882,6 +2882,50 @@
         </is>
       </c>
     </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>5/8/2020</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Mogi Guaçu</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>3530706</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>&gt;40-50%</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G58" t="n">
+        <v>151888</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>44%</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Sexta-feira</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J58"/>
+  <dimension ref="A1:J59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2926,6 +2926,50 @@
         </is>
       </c>
     </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>5/9/2020</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Mogi Guaçu</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>3530706</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>&gt;40-50%</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>1</v>
+      </c>
+      <c r="G59" t="n">
+        <v>151888</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>47%</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J59"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2970,6 +2970,50 @@
         </is>
       </c>
     </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>5/10/2020</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Mogi Guaçu</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>3530706</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>&gt;50-60%</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" t="n">
+        <v>151888</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>51%</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J60"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3014,6 +3014,50 @@
         </is>
       </c>
     </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>5/11/2020</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Mogi Guaçu</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>3530706</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>&gt;40-50%</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>1</v>
+      </c>
+      <c r="G61" t="n">
+        <v>151888</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>46%</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Segunda-feira</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J61"/>
+  <dimension ref="A1:J62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3058,6 +3058,50 @@
         </is>
       </c>
     </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>5/12/2020</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Mogi Guaçu</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>3530706</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>&gt;40-50%</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>1</v>
+      </c>
+      <c r="G62" t="n">
+        <v>151888</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>46%</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Terça-feira</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J62"/>
+  <dimension ref="A1:J63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3102,6 +3102,50 @@
         </is>
       </c>
     </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>5/13/2020</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Mogi Guaçu</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>3530706</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>&gt;40-50%</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>1</v>
+      </c>
+      <c r="G63" t="n">
+        <v>151888</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>45%</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Quarta-feira</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J63"/>
+  <dimension ref="A1:J64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3146,6 +3146,50 @@
         </is>
       </c>
     </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>5/14/2020</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Mogi Guaçu</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>3530706</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>&gt;40-50%</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>1</v>
+      </c>
+      <c r="G64" t="n">
+        <v>151888</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>46%</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Quinta-Feira</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J64"/>
+  <dimension ref="A1:J65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3190,6 +3190,50 @@
         </is>
       </c>
     </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>5/15/2020</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Mogi Guaçu</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>3530706</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>&gt;40-50%</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>1</v>
+      </c>
+      <c r="G65" t="n">
+        <v>151888</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>45%</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Sexta-feira</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1688,6 +1688,26 @@
         </is>
       </c>
     </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>5/17/2020</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>51%</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1708,6 +1708,26 @@
         </is>
       </c>
     </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>5/18/2020</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>45%</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Segunda-feira</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1728,6 +1728,26 @@
         </is>
       </c>
     </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>5/19/2020</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>45%</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Terça-feira</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1748,6 +1748,26 @@
         </is>
       </c>
     </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>5/20/2020</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>44%</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Quarta-feira</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1768,6 +1768,26 @@
         </is>
       </c>
     </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>5/21/2020</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>45%</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Quinta-Feira</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:D72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1788,6 +1788,26 @@
         </is>
       </c>
     </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>5/22/2020</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>44%</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Sexta-feira</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D72"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1808,6 +1808,26 @@
         </is>
       </c>
     </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>5/23/2020</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>47%</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1828,6 +1828,26 @@
         </is>
       </c>
     </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>5/24/2020</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>53%</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1848,6 +1848,26 @@
         </is>
       </c>
     </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>5/25/2020</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Segunda-feira</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1868,6 +1868,26 @@
         </is>
       </c>
     </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>5/26/2020</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>44%</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Terça-feira</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1888,6 +1888,26 @@
         </is>
       </c>
     </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>5/27/2020</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>44%</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Quarta-feira</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D77"/>
+  <dimension ref="A1:D78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1908,6 +1908,26 @@
         </is>
       </c>
     </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>5/28/2020</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>44%</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Quinta-Feira</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1928,6 +1928,46 @@
         </is>
       </c>
     </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>5/29/2020</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>44%</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Sexta-feira</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>5/30/2020</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>44%</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1956,15 +1956,35 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>44%</t>
+          <t>47%</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
           <t>Sábado</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>5/31/2020</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Domingo</t>
         </is>
       </c>
     </row>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D81"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1988,6 +1988,26 @@
         </is>
       </c>
     </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>6/01/2020</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>44%</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Segunda-feira</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D82"/>
+  <dimension ref="A1:D83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2008,6 +2008,26 @@
         </is>
       </c>
     </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>6/02/2020</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>44%</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Terça-feira</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D83"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2028,6 +2028,26 @@
         </is>
       </c>
     </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>6/03/2020</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>43%</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Quarta-feira</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D84"/>
+  <dimension ref="A1:D85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2048,6 +2048,26 @@
         </is>
       </c>
     </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>6/04/2020</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>44%</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Quinta-Feira</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:D86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2068,6 +2068,26 @@
         </is>
       </c>
     </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>6/05/2020</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>42%</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Sexta-feira</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D86"/>
+  <dimension ref="A1:D87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2088,6 +2088,26 @@
         </is>
       </c>
     </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>6/06/2020</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>45%</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2108,6 +2108,26 @@
         </is>
       </c>
     </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>6/07/2020</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>49%</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2128,6 +2128,26 @@
         </is>
       </c>
     </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>6/08/2020</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>44%</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Segunda-feira</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2148,6 +2148,46 @@
         </is>
       </c>
     </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>6/09/2020</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>43%</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Terça-feira</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>6/10/2020</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Quarta-feira</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D91"/>
+  <dimension ref="A1:D92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2188,6 +2188,26 @@
         </is>
       </c>
     </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>6/11/2020</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>45%</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Quinta-Feira</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D92"/>
+  <dimension ref="A1:D93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2208,6 +2208,26 @@
         </is>
       </c>
     </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>6/12/2020</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>41%</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Sexta-feira</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D93"/>
+  <dimension ref="A1:D94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2228,6 +2228,26 @@
         </is>
       </c>
     </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>6/13/2020</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>43%</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D94"/>
+  <dimension ref="A1:D95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2248,6 +2248,26 @@
         </is>
       </c>
     </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>6/14/2020</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>47%</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D95"/>
+  <dimension ref="A1:D96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2268,6 +2268,26 @@
         </is>
       </c>
     </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>6/15/2020</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>42%</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Segunda-feira</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D96"/>
+  <dimension ref="A1:D97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2288,6 +2288,26 @@
         </is>
       </c>
     </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>6/16/2020</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>42%</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Terça-feira</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D97"/>
+  <dimension ref="A1:D98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2308,6 +2308,26 @@
         </is>
       </c>
     </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>6/17/2020</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>42%</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Quarta-feira</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D98"/>
+  <dimension ref="A1:D99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2328,6 +2328,26 @@
         </is>
       </c>
     </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>6/18/2020</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>41%</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Quinta-Feira</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D99"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2348,6 +2348,26 @@
         </is>
       </c>
     </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>6/19/2020</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Sexta-feira</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D100"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2368,6 +2368,26 @@
         </is>
       </c>
     </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>6/20/2020</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>44%</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:D102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2388,6 +2388,26 @@
         </is>
       </c>
     </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>6/21/2020</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>48%</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D102"/>
+  <dimension ref="A1:D105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2408,6 +2408,66 @@
         </is>
       </c>
     </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>6/22/2020</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>42%</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Segunda-feira</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>6/23/2020</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>42%</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Terça-feira</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>6/24/2020</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>43%</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Quarta-feira</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D105"/>
+  <dimension ref="A1:D107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2468,6 +2468,46 @@
         </is>
       </c>
     </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>6/25/2020</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>43%</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Quinta-Feira</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>6/26/2020</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>42%</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Sexta-feira</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D107"/>
+  <dimension ref="A1:D108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2508,6 +2508,26 @@
         </is>
       </c>
     </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>6/27/2020</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>44%</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D108"/>
+  <dimension ref="A1:D109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2528,6 +2528,26 @@
         </is>
       </c>
     </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>6/28/2020</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>49%</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D109"/>
+  <dimension ref="A1:D111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2548,6 +2548,46 @@
         </is>
       </c>
     </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>6/29/2020</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>46%</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Segunda-feira</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>6/30/2020</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>46%</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Terça-feira</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D111"/>
+  <dimension ref="A1:D112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2576,15 +2576,35 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>46%</t>
+          <t>43%</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
           <t>Terça-feira</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>7/01/2020</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>42%</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Quarta-feira</t>
         </is>
       </c>
     </row>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D112"/>
+  <dimension ref="A1:D113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2608,6 +2608,26 @@
         </is>
       </c>
     </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>7/02/2020</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>42%</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Quinta-Feira</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D113"/>
+  <dimension ref="A1:D114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2628,6 +2628,26 @@
         </is>
       </c>
     </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>7/03/2020</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>41%</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Sexta-feira</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D114"/>
+  <dimension ref="A1:D115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2648,6 +2648,26 @@
         </is>
       </c>
     </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>7/04/2020</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>44%</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D115"/>
+  <dimension ref="A1:D117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2668,6 +2668,46 @@
         </is>
       </c>
     </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>7/05/2020</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>48%</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>7/06/2020</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>42%</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Segunda-feira</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D117"/>
+  <dimension ref="A1:D119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2708,6 +2708,46 @@
         </is>
       </c>
     </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>7/07/2020</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>42%</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Terça-feira</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>7/08/2020</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>42%</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Quarta-feira</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D119"/>
+  <dimension ref="A1:D120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2748,6 +2748,26 @@
         </is>
       </c>
     </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>7/09/2020</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>42%</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Quinta-Feira</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D120"/>
+  <dimension ref="A1:D122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2768,6 +2768,46 @@
         </is>
       </c>
     </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>7/10/2020</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Sexta-feira</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>7/11/2020</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>44%</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D122"/>
+  <dimension ref="A1:D123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2808,6 +2808,26 @@
         </is>
       </c>
     </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>7/12/2020</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>48%</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D123"/>
+  <dimension ref="A1:D124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2828,6 +2828,26 @@
         </is>
       </c>
     </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>7/13/2020</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>42%</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Segunda-feira</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D124"/>
+  <dimension ref="A1:D125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2848,6 +2848,26 @@
         </is>
       </c>
     </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>7/14/2020</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>42%</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Terça-feira</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D125"/>
+  <dimension ref="A1:D128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2868,6 +2868,66 @@
         </is>
       </c>
     </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>7/15/2020</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>41%</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Quarta-feira</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>7/16/2020</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>42%</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Quinta-Feira</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>7/17/2020</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>42%</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Sexta-feira</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D128"/>
+  <dimension ref="A1:D130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2928,6 +2928,46 @@
         </is>
       </c>
     </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>7/18/2020</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>44%</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>7/19/2020</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>49%</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D130"/>
+  <dimension ref="A1:D133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2968,6 +2968,66 @@
         </is>
       </c>
     </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>7/20/2020</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>42%</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Segunda-feira</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>7/21/2020</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>41%</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Terça-feira</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>7/22/2020</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Quarta-feira</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D133"/>
+  <dimension ref="A1:D134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3028,6 +3028,26 @@
         </is>
       </c>
     </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>7/23/2020</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Quinta-Feira</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D134"/>
+  <dimension ref="A1:D136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3048,6 +3048,46 @@
         </is>
       </c>
     </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>7/24/2020</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>39%</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Sexta-feira</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>7/25/2020</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>44%</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D136"/>
+  <dimension ref="A1:D137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3088,6 +3088,26 @@
         </is>
       </c>
     </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>7/26/2020</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>49%</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D137"/>
+  <dimension ref="A1:D138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3108,6 +3108,26 @@
         </is>
       </c>
     </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>7/27/2020</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>41%</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Segunda-feira</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D138"/>
+  <dimension ref="A1:D139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3128,6 +3128,26 @@
         </is>
       </c>
     </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>7/28/2020</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>41%</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Terça-feira</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D139"/>
+  <dimension ref="A1:D141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3148,6 +3148,46 @@
         </is>
       </c>
     </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>7/29/2020</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>41%</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Quarta-feira</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>7/30/2020</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>41%</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Quinta-Feira</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D141"/>
+  <dimension ref="A1:D143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3188,6 +3188,46 @@
         </is>
       </c>
     </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>7/31/2020</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>41%</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Sexta-feira</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>8/01/2020</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>41%</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D143"/>
+  <dimension ref="A1:D145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3228,6 +3228,46 @@
         </is>
       </c>
     </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>8/02/2020</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>48%</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>8/03/2020</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Segunda-feira</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D145"/>
+  <dimension ref="A1:D146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3268,6 +3268,26 @@
         </is>
       </c>
     </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>8/04/2020</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Terça-feira</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D146"/>
+  <dimension ref="A1:D147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3288,6 +3288,26 @@
         </is>
       </c>
     </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>8/05/2020</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>39%</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Quarta-feira</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D147"/>
+  <dimension ref="A1:D148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3308,6 +3308,26 @@
         </is>
       </c>
     </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>8/06/2020</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>31%</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Quinta-Feira</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D148"/>
+  <dimension ref="A1:D150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3328,6 +3328,46 @@
         </is>
       </c>
     </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>8/07/2020</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>38%</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Sexta-feira</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>8/08/2020</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>41%</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D150"/>
+  <dimension ref="A1:D151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3368,6 +3368,26 @@
         </is>
       </c>
     </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>8/09/2020</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>46%</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D151"/>
+  <dimension ref="A1:D152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3388,6 +3388,26 @@
         </is>
       </c>
     </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>8/10/2020</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>41%</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Segunda-feira</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D152"/>
+  <dimension ref="A1:D153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3408,6 +3408,26 @@
         </is>
       </c>
     </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>8/11/2020</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Terça-feira</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D153"/>
+  <dimension ref="A1:D154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3428,6 +3428,26 @@
         </is>
       </c>
     </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>8/12/2020</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Quarta-feira</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D154"/>
+  <dimension ref="A1:D155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3448,6 +3448,26 @@
         </is>
       </c>
     </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>8/13/2020</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>39%</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Quinta-Feira</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D155"/>
+  <dimension ref="A1:D156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3468,6 +3468,26 @@
         </is>
       </c>
     </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>8/14/2020</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>41%</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Sexta-feira</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D156"/>
+  <dimension ref="A1:D158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3488,6 +3488,46 @@
         </is>
       </c>
     </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>8/15/2020</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>42%</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>8/16/2020</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>49%</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D158"/>
+  <dimension ref="A1:D159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3528,6 +3528,26 @@
         </is>
       </c>
     </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>8/17/2020</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>41%</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Segunda-feira</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D159"/>
+  <dimension ref="A1:D160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3548,6 +3548,26 @@
         </is>
       </c>
     </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>8/18/2020</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Terça-feira</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D160"/>
+  <dimension ref="A1:D161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3568,6 +3568,26 @@
         </is>
       </c>
     </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>8/19/2020</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>41%</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Quarta-feira</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D161"/>
+  <dimension ref="A1:D164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3588,6 +3588,66 @@
         </is>
       </c>
     </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>8/20/2020</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Quinta-Feira</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>8/21/2020</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Sexta-feira</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>8/22/2020</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>42%</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D164"/>
+  <dimension ref="A1:D166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3648,6 +3648,46 @@
         </is>
       </c>
     </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>8/23/2020</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>48%</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>8/24/2020</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Segunda-feira</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D166"/>
+  <dimension ref="A1:D168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3688,6 +3688,46 @@
         </is>
       </c>
     </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>8/25/2020</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Terça-feira</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>8/26/2020</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Quarta-feira</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D168"/>
+  <dimension ref="A1:D169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3728,6 +3728,26 @@
         </is>
       </c>
     </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>8/27/2020</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Quinta-Feira</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D169"/>
+  <dimension ref="A1:D170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3748,6 +3748,26 @@
         </is>
       </c>
     </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>8/28/2020</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>39%</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Sexta-feira</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D170"/>
+  <dimension ref="A1:D172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3768,6 +3768,46 @@
         </is>
       </c>
     </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>8/29/2020</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>8/30/2020</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>46%</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D172"/>
+  <dimension ref="A1:D175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3808,6 +3808,66 @@
         </is>
       </c>
     </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>8/31/2020</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>39%</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Segunda-feira</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>9/01/2020</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Terça-feira</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>9/02/2020</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Quarta-feira</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D175"/>
+  <dimension ref="A1:D176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3868,6 +3868,26 @@
         </is>
       </c>
     </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>9/03/2020</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>39%</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Quinta-Feira</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D176"/>
+  <dimension ref="A1:D178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3888,6 +3888,46 @@
         </is>
       </c>
     </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>9/04/2020</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>35%</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Sexta-feira</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>9/05/2020</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D178"/>
+  <dimension ref="A1:D179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3928,6 +3928,26 @@
         </is>
       </c>
     </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>9/06/2020</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>44%</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D179"/>
+  <dimension ref="A1:D180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3948,6 +3948,26 @@
         </is>
       </c>
     </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>9/07/2020</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>46%</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Segunda-feira</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D180"/>
+  <dimension ref="A1:D183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3968,6 +3968,66 @@
         </is>
       </c>
     </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>9/08/2020</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>38%</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Terça-feira</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>9/09/2020</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>39%</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Quarta-feira</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>9/10/2020</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>39%</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Quinta-Feira</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D183"/>
+  <dimension ref="A1:D187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4028,6 +4028,86 @@
         </is>
       </c>
     </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>9/11/2020</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>39%</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Sexta-feira</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>9/12/2020</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>41%</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>9/13/2020</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>45%</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>9/14/2020</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>39%</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Segunda-feira</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D187"/>
+  <dimension ref="A1:D190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4108,6 +4108,66 @@
         </is>
       </c>
     </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>9/15/2020</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Terça-feira</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>9/16/2020</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Quarta-feira</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>9/17/2020</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Quinta-Feira</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D190"/>
+  <dimension ref="A1:D191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4168,6 +4168,26 @@
         </is>
       </c>
     </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>9/18/2020</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>39%</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Sexta-feira</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dadosIsolamentoMogiGuacu.xlsx
+++ b/Dados/dadosIsolamentoMogiGuacu.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D191"/>
+  <dimension ref="A1:D196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4188,6 +4188,106 @@
         </is>
       </c>
     </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>9/19/2020</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>9/20/2020</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>47%</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>9/21/2020</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Segunda-feira</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>9/22/2020</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>41%</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Terça-feira</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>9/23/2020</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Quarta-feira</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
